--- a/chestnut_velutina_brooktrout_PSU/CADE_FRVE_RFseq_mastermixcockatils.xlsx
+++ b/chestnut_velutina_brooktrout_PSU/CADE_FRVE_RFseq_mastermixcockatils.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasparchman/Documents/GitHub/RFseq_projects/chestnut_velutina_brooktrout_PSU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E30D54-1199-0148-A4ED-4E94D607CE95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2612317D-CDCD-6A4A-8F38-BE5EF2AC994A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="500" windowWidth="27460" windowHeight="22780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2440" yWindow="3880" windowWidth="27460" windowHeight="19720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="47">
   <si>
     <t>Master Mix 1</t>
   </si>
@@ -925,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1100,6 +1100,9 @@
         <f>B15*E1</f>
         <v>686.4</v>
       </c>
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
@@ -1112,6 +1115,9 @@
         <f>B16*E1</f>
         <v>49.420799999999993</v>
       </c>
+      <c r="D16" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
@@ -1124,6 +1130,9 @@
         <f>B17*E1</f>
         <v>68.64</v>
       </c>
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
@@ -1136,7 +1145,9 @@
         <f>B18*E1</f>
         <v>34.32</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
@@ -1149,6 +1160,9 @@
         <f>B19*E1</f>
         <v>34.32</v>
       </c>
+      <c r="D19" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="20" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
@@ -1160,6 +1174,9 @@
       <c r="C20" s="24">
         <f>B20*E1</f>
         <v>114.97200000000001</v>
+      </c>
+      <c r="D20" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -1227,6 +1244,9 @@
       <c r="C29" s="23">
         <f>B29*E1</f>
         <v>6637.4879999999994</v>
+      </c>
+      <c r="D29" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">

--- a/chestnut_velutina_brooktrout_PSU/CADE_FRVE_RFseq_mastermixcockatils.xlsx
+++ b/chestnut_velutina_brooktrout_PSU/CADE_FRVE_RFseq_mastermixcockatils.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasparchman/Documents/GitHub/RFseq_projects/chestnut_velutina_brooktrout_PSU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2612317D-CDCD-6A4A-8F38-BE5EF2AC994A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE880C0-3D67-E446-B7C8-C0F3F8B77A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2440" yWindow="3880" windowWidth="27460" windowHeight="19720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2200" yWindow="500" windowWidth="27460" windowHeight="19720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="47">
   <si>
     <t>Master Mix 1</t>
   </si>
@@ -925,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1260,6 +1260,9 @@
         <f>4*E1</f>
         <v>2745.6</v>
       </c>
+      <c r="D30" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
@@ -1272,6 +1275,9 @@
         <f>B31*E1</f>
         <v>274.56</v>
       </c>
+      <c r="D31" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
@@ -1284,6 +1290,9 @@
         <f>B32*E1</f>
         <v>274.56</v>
       </c>
+      <c r="D32" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
@@ -1296,7 +1305,9 @@
         <f>B33*E1</f>
         <v>912.91200000000003</v>
       </c>
-      <c r="D33" s="19"/>
+      <c r="D33" s="19" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
@@ -1309,6 +1320,9 @@
         <f>B34*E1</f>
         <v>137.28</v>
       </c>
+      <c r="D34" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
@@ -1320,6 +1334,9 @@
       <c r="C35" s="23">
         <f>B35*E1</f>
         <v>102.96</v>
+      </c>
+      <c r="D35" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
